--- a/Table S3 Details of the results.xlsx
+++ b/Table S3 Details of the results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheng\Desktop\submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2F9F29-DA57-479C-9E49-974BBD81165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29D77F8-8B7B-4D86-95F8-DF45DF717154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{66779D8C-8C09-4345-8F79-B57E69EF49E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{66779D8C-8C09-4345-8F79-B57E69EF49E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Section 4.4.1（1）" sheetId="5" r:id="rId1"/>
@@ -558,9 +558,6 @@
     <t>Regional Proportions of FM-NT8: Inappropriate site selection</t>
   </si>
   <si>
-    <t>Time-varying volumes and proportions of public sentiments toward MCHs during MCH policy lifecycle (Corresponding to Fig. 5)</t>
-  </si>
-  <si>
     <t>Volume of Netural SMD</t>
   </si>
   <si>
@@ -679,6 +676,9 @@
   </si>
   <si>
     <t>Number of SMD for each topic across regions (Corresponding to Fig. 10)</t>
+  </si>
+  <si>
+    <t>Time-varying public sentiments toward MCHs during MCH policy lifecycle (Corresponding to Fig. 5)</t>
   </si>
 </sst>
 </file>
@@ -939,16 +939,19 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,6 +966,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,42 +1010,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1330,84 +1330,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C0FDA1-5A4A-4309-88EC-1E1C3BAE03AB}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" style="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="20.6328125" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="46"/>
+    <col min="1" max="1" width="17.36328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="20.6328125" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="A1" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="F2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="23">
         <v>11468</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="23">
         <v>50457</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="23">
         <v>33881</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="23">
         <v>95806</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="24">
         <f>B3/E3</f>
         <v>0.11970022754316013</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="24">
         <f>C3/E3</f>
         <v>0.52665803811869816</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="24">
         <f>D3/E3</f>
         <v>0.35364173433814167</v>
       </c>
@@ -1419,27 +1419,27 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="23">
         <v>3506</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="23">
         <v>14172</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="23">
         <v>19031</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="23">
         <v>36709</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="24">
         <f t="shared" ref="F4:F15" si="0">B4/E4</f>
         <v>9.5507913590672594E-2</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="24">
         <f t="shared" ref="G4:G15" si="1">C4/E4</f>
         <v>0.38606336320793266</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="24">
         <f t="shared" ref="H4:H15" si="2">D4/E4</f>
         <v>0.51842872320139477</v>
       </c>
@@ -1451,27 +1451,27 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="23">
         <v>4051</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="23">
         <v>11693</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="23">
         <v>8434</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="23">
         <v>24178</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>0.16754901149805609</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>0.48362147406733397</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="24">
         <f t="shared" si="2"/>
         <v>0.34882951443460997</v>
       </c>
@@ -1483,27 +1483,27 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="23">
         <v>2465</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="23">
         <v>13822</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="23">
         <v>6209</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="23">
         <v>22496</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>0.10957503556187767</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="24">
         <f t="shared" si="1"/>
         <v>0.61442034139402557</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="24">
         <f t="shared" si="2"/>
         <v>0.27600462304409673</v>
       </c>
@@ -1515,27 +1515,27 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="23">
         <v>2152</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="23">
         <v>5514</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="23">
         <v>3102</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="23">
         <v>10768</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>0.199851411589896</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
         <v>0.51207280832095092</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="24">
         <f t="shared" si="2"/>
         <v>0.28807578008915302</v>
       </c>
@@ -1547,27 +1547,27 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="23">
         <v>2679</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="23">
         <v>4593</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="23">
         <v>5043</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="23">
         <v>12315</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>0.21753958587088915</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
         <v>0.37295980511571253</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="24">
         <f t="shared" si="2"/>
         <v>0.4095006090133983</v>
       </c>
@@ -1579,27 +1579,27 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="23">
         <v>1905</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="23">
         <v>6497</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="23">
         <v>4403</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="23">
         <v>12805</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>0.14877001171417414</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>0.50737992971495505</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="24">
         <f t="shared" si="2"/>
         <v>0.34385005857087075</v>
       </c>
@@ -1611,27 +1611,27 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="23">
         <v>1218</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="23">
         <v>3423</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="23">
         <v>2521</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="23">
         <v>7162</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>0.17006422786931025</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>0.47793912314995812</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="24">
         <f t="shared" si="2"/>
         <v>0.35199664898073163</v>
       </c>
@@ -1643,27 +1643,27 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="23">
         <v>5439</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="23">
         <v>8782</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="23">
         <v>8217</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="23">
         <v>22438</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>0.24240128353685711</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
         <v>0.3913896069168375</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="24">
         <f t="shared" si="2"/>
         <v>0.36620910954630537</v>
       </c>
@@ -1675,27 +1675,27 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="23">
         <v>10028</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="23">
         <v>17396</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="23">
         <v>14905</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="23">
         <v>42329</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>0.23690613999858254</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="24">
         <f t="shared" si="1"/>
         <v>0.41097120177655982</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="24">
         <f t="shared" si="2"/>
         <v>0.35212265822485767</v>
       </c>
@@ -1707,27 +1707,27 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="23">
         <v>7773</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="23">
         <v>8512</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="23">
         <v>7539</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="23">
         <v>23824</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>0.32626762928139691</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>0.35728676964405642</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="24">
         <f t="shared" si="2"/>
         <v>0.31644560107454667</v>
       </c>
@@ -1739,27 +1739,27 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="23">
         <v>11475</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="23">
         <v>28112</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="23">
         <v>51118</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="23">
         <v>90705</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>0.12650901273358689</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>0.30992778788379916</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="24">
         <f t="shared" si="2"/>
         <v>0.56356319938261401</v>
       </c>
@@ -1771,27 +1771,27 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="23">
         <v>1149</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="23">
         <v>2959</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="23">
         <v>5099</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="23">
         <v>9207</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>0.12479635060280221</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>0.32138590203106332</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
         <v>0.55381774736613443</v>
       </c>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1923,72 +1923,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="A1" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="23">
         <v>112</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="23">
         <v>687</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="23">
         <v>1063</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="23">
         <v>1862</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="24">
         <f t="shared" ref="F3:F33" si="0">B3/E3</f>
         <v>6.0150375939849621E-2</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="24">
         <f t="shared" ref="G3:G33" si="1">C3/E3</f>
         <v>0.36895810955961333</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="24">
         <f t="shared" ref="H3:H33" si="2">D3/E3</f>
         <v>0.5708915145005371</v>
       </c>
@@ -2000,27 +2000,27 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="23">
         <v>494</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="23">
         <v>1923</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="23">
         <v>5402</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="23">
         <v>7819</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="24">
         <f t="shared" si="0"/>
         <v>6.3179434710321017E-2</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="24">
         <f t="shared" si="1"/>
         <v>0.24593937843714031</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="24">
         <f t="shared" si="2"/>
         <v>0.69088118685253874</v>
       </c>
@@ -2032,27 +2032,27 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="23">
         <v>139</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="23">
         <v>1003</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="23">
         <v>1760</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="23">
         <v>2902</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>4.7898001378359749E-2</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>0.3456237077877326</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="24">
         <f t="shared" si="2"/>
         <v>0.6064782908339077</v>
       </c>
@@ -2064,27 +2064,27 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="23">
         <v>123</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="23">
         <v>825</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="23">
         <v>1183</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="23">
         <v>2131</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>5.7719380572501172E-2</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="24">
         <f t="shared" si="1"/>
         <v>0.38714218676677614</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="24">
         <f t="shared" si="2"/>
         <v>0.55513843266072271</v>
       </c>
@@ -2096,27 +2096,27 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="23">
         <v>89</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="23">
         <v>540</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="23">
         <v>1039</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="23">
         <v>1668</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>5.3357314148681056E-2</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
         <v>0.32374100719424459</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="24">
         <f t="shared" si="2"/>
         <v>0.62290167865707435</v>
       </c>
@@ -2128,27 +2128,27 @@
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="23">
         <v>616</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="23">
         <v>2548</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="23">
         <v>6202</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="23">
         <v>9366</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>6.5769805680119586E-2</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
         <v>0.27204783258594917</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="24">
         <f t="shared" si="2"/>
         <v>0.66218236173393119</v>
       </c>
@@ -2160,27 +2160,27 @@
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="23">
         <v>71</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="23">
         <v>605</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="23">
         <v>803</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="23">
         <v>1479</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>4.8005409060175794E-2</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>0.40906017579445569</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="24">
         <f t="shared" si="2"/>
         <v>0.54293441514536844</v>
       </c>
@@ -2192,27 +2192,27 @@
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="23">
         <v>29</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="23">
         <v>358</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="23">
         <v>468</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="23">
         <v>855</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>3.3918128654970757E-2</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>0.41871345029239765</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="24">
         <f t="shared" si="2"/>
         <v>0.54736842105263162</v>
       </c>
@@ -2224,27 +2224,27 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="23">
         <v>35</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="23">
         <v>472</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="23">
         <v>505</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="23">
         <v>1012</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>3.4584980237154152E-2</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
         <v>0.466403162055336</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="24">
         <f t="shared" si="2"/>
         <v>0.49901185770750989</v>
       </c>
@@ -2256,27 +2256,27 @@
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="23">
         <v>193</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="23">
         <v>1151</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="23">
         <v>2342</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="23">
         <v>3686</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>5.2360282148670646E-2</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="24">
         <f t="shared" si="1"/>
         <v>0.31226261530113947</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="24">
         <f t="shared" si="2"/>
         <v>0.63537710255018987</v>
       </c>
@@ -2288,27 +2288,27 @@
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="23">
         <v>44</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="23">
         <v>464</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="23">
         <v>636</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="23">
         <v>1144</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>0.40559440559440557</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="24">
         <f t="shared" si="2"/>
         <v>0.55594405594405594</v>
       </c>
@@ -2320,27 +2320,27 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="23">
         <v>259</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="23">
         <v>1360</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="23">
         <v>2754</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="23">
         <v>4373</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>5.9227075234392863E-2</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>0.31099931397210151</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="24">
         <f t="shared" si="2"/>
         <v>0.62977361079350558</v>
       </c>
@@ -2352,27 +2352,27 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="23">
         <v>132</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="23">
         <v>783</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="23">
         <v>1486</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="23">
         <v>2401</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>5.4977092877967516E-2</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>0.32611411911703458</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
         <v>0.61890878800499793</v>
       </c>
@@ -2384,27 +2384,27 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="23">
         <v>171</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="23">
         <v>770</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="23">
         <v>1023</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="23">
         <v>1964</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>8.7067209775967408E-2</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="24">
         <f t="shared" si="1"/>
         <v>0.39205702647657842</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="24">
         <f t="shared" si="2"/>
         <v>0.52087576374745415</v>
       </c>
@@ -2416,27 +2416,27 @@
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="23">
         <v>84</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="23">
         <v>603</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="23">
         <v>875</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="23">
         <v>1562</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>5.3777208706786171E-2</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="24">
         <f t="shared" si="1"/>
         <v>0.38604353393085789</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="24">
         <f t="shared" si="2"/>
         <v>0.56017925736235596</v>
       </c>
@@ -2448,27 +2448,27 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="23">
         <v>286</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="23">
         <v>1352</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="23">
         <v>2915</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="23">
         <v>4553</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>6.2815725895014274E-2</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>0.29694706786734021</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="24">
         <f t="shared" si="2"/>
         <v>0.64023720623764546</v>
       </c>
@@ -2480,27 +2480,27 @@
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="23">
         <v>183</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="23">
         <v>540</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="23">
         <v>964</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="23">
         <v>1687</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>0.10847658565500889</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
         <v>0.32009484291641965</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
@@ -2512,27 +2512,27 @@
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="23">
         <v>51</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="23">
         <v>736</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="23">
         <v>749</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="23">
         <v>1536</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>3.3203125E-2</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="24">
         <f t="shared" si="1"/>
         <v>0.47916666666666669</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="24">
         <f t="shared" si="2"/>
         <v>0.48763020833333331</v>
       </c>
@@ -2544,27 +2544,27 @@
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="23">
         <v>115</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="23">
         <v>731</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="23">
         <v>1384</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="23">
         <v>2230</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>5.1569506726457402E-2</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="24">
         <f t="shared" si="1"/>
         <v>0.32780269058295963</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="24">
         <f t="shared" si="2"/>
         <v>0.62062780269058293</v>
       </c>
@@ -2576,27 +2576,27 @@
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="23">
         <v>17</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="23">
         <v>186</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="23">
         <v>285</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="23">
         <v>488</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>3.4836065573770489E-2</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="24">
         <f t="shared" si="1"/>
         <v>0.38114754098360654</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="24">
         <f t="shared" si="2"/>
         <v>0.58401639344262291</v>
       </c>
@@ -2608,27 +2608,27 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="23">
         <v>21</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="23">
         <v>202</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="23">
         <v>411</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="23">
         <v>634</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>3.3123028391167195E-2</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="24">
         <f t="shared" si="1"/>
         <v>0.31861198738170349</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="24">
         <f t="shared" si="2"/>
         <v>0.6482649842271293</v>
       </c>
@@ -2640,27 +2640,27 @@
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="23">
         <v>99</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="23">
         <v>739</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="23">
         <v>1584</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="23">
         <v>2422</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>4.0875309661436827E-2</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="24">
         <f t="shared" si="1"/>
         <v>0.30511973575557388</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="24">
         <f t="shared" si="2"/>
         <v>0.65400495458298924</v>
       </c>
@@ -2672,27 +2672,27 @@
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="23">
         <v>290</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="23">
         <v>1359</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="23">
         <v>3276</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="23">
         <v>4925</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="24">
         <f t="shared" si="0"/>
         <v>5.8883248730964469E-2</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="24">
         <f t="shared" si="1"/>
         <v>0.27593908629441627</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="24">
         <f t="shared" si="2"/>
         <v>0.66517766497461928</v>
       </c>
@@ -2704,27 +2704,27 @@
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="23">
         <v>534</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="23">
         <v>1530</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="23">
         <v>4745</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="23">
         <v>6809</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="24">
         <f t="shared" si="0"/>
         <v>7.8425613159054192E-2</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="24">
         <f t="shared" si="1"/>
         <v>0.22470259950066088</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="24">
         <f t="shared" si="2"/>
         <v>0.69687178734028488</v>
       </c>
@@ -2736,27 +2736,27 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="23">
         <v>126</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="23">
         <v>1055</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="23">
         <v>1111</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="23">
         <v>2292</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>5.4973821989528798E-2</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="24">
         <f t="shared" si="1"/>
         <v>0.46029668411867364</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="24">
         <f t="shared" si="2"/>
         <v>0.48472949389179754</v>
       </c>
@@ -2768,27 +2768,27 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="23">
         <v>227</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="23">
         <v>1218</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="23">
         <v>2410</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="23">
         <v>3855</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>5.8884565499351491E-2</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="24">
         <f t="shared" si="1"/>
         <v>0.3159533073929961</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="24">
         <f t="shared" si="2"/>
         <v>0.6251621271076524</v>
       </c>
@@ -2800,27 +2800,27 @@
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="23">
         <v>106</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="23">
         <v>601</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="23">
         <v>1188</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="23">
         <v>1895</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="24">
         <f t="shared" si="0"/>
         <v>5.5936675461741428E-2</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="24">
         <f t="shared" si="1"/>
         <v>0.31715039577836412</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="24">
         <f t="shared" si="2"/>
         <v>0.62691292875989446</v>
       </c>
@@ -2832,27 +2832,27 @@
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="23">
         <v>17</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="23">
         <v>161</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="23">
         <v>284</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="23">
         <v>462</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>3.67965367965368E-2</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="24">
         <f t="shared" si="1"/>
         <v>0.34848484848484851</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="24">
         <f t="shared" si="2"/>
         <v>0.61471861471861466</v>
       </c>
@@ -2864,27 +2864,27 @@
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="23">
         <v>394</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="23">
         <v>2161</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="23">
         <v>6219</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="23">
         <v>8774</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="24">
         <f t="shared" si="0"/>
         <v>4.4905402325051288E-2</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="24">
         <f t="shared" si="1"/>
         <v>0.246295874173695</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="24">
         <f t="shared" si="2"/>
         <v>0.70879872350125372</v>
       </c>
@@ -2896,27 +2896,27 @@
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="23">
         <v>70</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="23">
         <v>526</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="23">
         <v>571</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="23">
         <v>1167</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="24">
         <f t="shared" si="0"/>
         <v>5.9982862039417308E-2</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="24">
         <f t="shared" si="1"/>
         <v>0.45072836332476435</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="24">
         <f t="shared" si="2"/>
         <v>0.48928877463581832</v>
       </c>
@@ -2928,27 +2928,27 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="23">
         <v>257</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="23">
         <v>1233</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="23">
         <v>2406</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="23">
         <v>3896</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="24">
         <f t="shared" si="0"/>
         <v>6.5965092402464065E-2</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="24">
         <f t="shared" si="1"/>
         <v>0.31647843942505133</v>
       </c>
-      <c r="H33" s="45">
+      <c r="H33" s="24">
         <f t="shared" si="2"/>
         <v>0.61755646817248455</v>
       </c>
@@ -3074,8 +3074,8 @@
   </sheetPr>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3109,23 +3109,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -3786,35 +3786,35 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26" t="s">
+      <c r="B20" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="15" t="s">
         <v>114</v>
       </c>
@@ -4172,35 +4172,35 @@
       <c r="H35" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="23" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="26"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="16" t="s">
         <v>114</v>
       </c>
@@ -4558,21 +4558,21 @@
       <c r="H54" s="20"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="36" t="s">
+      <c r="A59" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="G59" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="G59" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="20"/>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4580,7 +4580,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>70</v>
@@ -4591,10 +4591,10 @@
       <c r="E60" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="28"/>
+      <c r="G60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="29"/>
       <c r="I60" s="15" t="s">
         <v>45</v>
       </c>
@@ -4625,11 +4625,11 @@
       <c r="E61" s="19">
         <v>82700</v>
       </c>
-      <c r="G61" s="29" t="s">
+      <c r="G61" s="30" t="s">
         <v>112</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I61" s="17">
         <v>6</v>
@@ -4661,9 +4661,9 @@
       <c r="E62" s="19">
         <v>1656</v>
       </c>
-      <c r="G62" s="30"/>
+      <c r="G62" s="31"/>
       <c r="H62" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I62" s="17">
         <v>7</v>
@@ -4729,19 +4729,19 @@
       <c r="E65" s="19">
         <v>3146</v>
       </c>
-      <c r="G65" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="36"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
+      <c r="G65" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
     </row>
     <row r="66" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="s">
@@ -4759,23 +4759,23 @@
       <c r="E66" s="19">
         <v>1575</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G66" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26" t="s">
+      <c r="H66" s="35"/>
+      <c r="I66" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
     </row>
     <row r="67" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
@@ -4793,33 +4793,33 @@
       <c r="E67" s="19">
         <v>4370</v>
       </c>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26" t="s">
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J67" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="K67" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="N67" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="J67" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L67" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="M67" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N67" s="26" t="s">
+      <c r="O67" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="O67" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="P67" s="26" t="s">
+      <c r="P67" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="Q67" s="26"/>
+      <c r="Q67" s="35"/>
     </row>
     <row r="68" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
@@ -4837,15 +4837,15 @@
       <c r="E68" s="19">
         <v>6154</v>
       </c>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
       <c r="P68" s="15" t="s">
         <v>67</v>
       </c>
@@ -4869,11 +4869,11 @@
       <c r="E69" s="19">
         <v>48791</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="35" t="s">
         <v>112</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I69" s="16">
         <v>5.3819659797963446</v>
@@ -4919,9 +4919,9 @@
       <c r="E70" s="19">
         <v>74572</v>
       </c>
-      <c r="G70" s="26"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -5000,16 +5000,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G59:L59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A39:A40"/>
     <mergeCell ref="G69:G70"/>
     <mergeCell ref="I67:I68"/>
     <mergeCell ref="J67:J68"/>
@@ -5021,11 +5011,21 @@
     <mergeCell ref="K66:Q66"/>
     <mergeCell ref="O67:O68"/>
     <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G59:L59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E39:G39"/>
     <mergeCell ref="A59:E59"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5064,27 +5064,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="A1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>145</v>
@@ -6587,35 +6587,35 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="A38" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35" t="s">
+      <c r="A39" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E42" s="5">
         <v>0.95617493641398066</v>
@@ -6863,7 +6863,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="5">
         <v>0.9192268863541343</v>
@@ -6973,35 +6973,35 @@
       <c r="H54" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="42"/>
+      <c r="A57" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31" t="s">
+      <c r="A58" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="31"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="8" t="s">
         <v>114</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E61" s="9">
         <v>0.95617490738452182</v>
@@ -7249,7 +7249,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E69" s="9">
         <v>0.91922687372120726</v>
@@ -7359,20 +7359,20 @@
       <c r="H73" s="3"/>
     </row>
     <row r="81" spans="1:17" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
+      <c r="A81" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>70</v>
@@ -7402,14 +7402,14 @@
       <c r="E83" s="9">
         <v>1241</v>
       </c>
-      <c r="G83" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
+      <c r="G83" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
@@ -7428,10 +7428,10 @@
       <c r="E84" s="9">
         <v>39003</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="G84" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="H84" s="31"/>
+      <c r="H84" s="43"/>
       <c r="I84" s="8" t="s">
         <v>45</v>
       </c>
@@ -7462,11 +7462,11 @@
       <c r="E85" s="9">
         <v>14024</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I85" s="10">
         <v>16</v>
@@ -7498,9 +7498,9 @@
       <c r="E86" s="9">
         <v>14940</v>
       </c>
-      <c r="G86" s="31"/>
+      <c r="G86" s="43"/>
       <c r="H86" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I86" s="10">
         <v>15</v>
@@ -7601,19 +7601,19 @@
       <c r="E91" s="9">
         <v>10288</v>
       </c>
-      <c r="G91" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
+      <c r="G91" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
@@ -7631,23 +7631,23 @@
       <c r="E92" s="9">
         <v>1338</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="G92" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31" t="s">
+      <c r="H92" s="43"/>
+      <c r="I92" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
@@ -7665,33 +7665,33 @@
       <c r="E93" s="9">
         <v>4180</v>
       </c>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31" t="s">
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J93" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K93" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="M93" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="N93" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="J93" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="K93" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="L93" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="M93" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="N93" s="31" t="s">
+      <c r="O93" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="O93" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P93" s="31" t="s">
+      <c r="P93" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="Q93" s="31"/>
+      <c r="Q93" s="43"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
@@ -7709,15 +7709,15 @@
       <c r="E94" s="9">
         <v>7116</v>
       </c>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
       <c r="P94" s="8" t="s">
         <v>67</v>
       </c>
@@ -7741,11 +7741,11 @@
       <c r="E95" s="9">
         <v>3743</v>
       </c>
-      <c r="G95" s="31" t="s">
+      <c r="G95" s="43" t="s">
         <v>112</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I95" s="9">
         <v>13.972864088414706</v>
@@ -7791,9 +7791,9 @@
       <c r="E96" s="9">
         <v>6131</v>
       </c>
-      <c r="G96" s="31"/>
+      <c r="G96" s="43"/>
       <c r="H96" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -8119,16 +8119,6 @@
     <sortCondition ref="B88:B113"/>
   </sortState>
   <mergeCells count="26">
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="E58:G58"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="A81:E81"/>
     <mergeCell ref="G83:L83"/>
@@ -8145,6 +8135,16 @@
     <mergeCell ref="M93:M94"/>
     <mergeCell ref="N93:N94"/>
     <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Table S3 Details of the results.xlsx
+++ b/Table S3 Details of the results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017CA750-6060-4A91-AE85-0263F8759AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E09B2-3341-4447-8C99-C5AF39DA0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{66779D8C-8C09-4345-8F79-B57E69EF49E7}"/>
   </bookViews>
@@ -752,9 +752,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,6 +765,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1683,7 +1683,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2845,8 +2845,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2880,23 +2880,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
@@ -3557,21 +3557,21 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3590,10 +3590,10 @@
       <c r="E21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="11" t="s">
         <v>45</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="E22" s="15">
         <v>82700</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>112</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -3660,7 +3660,7 @@
       <c r="E23" s="15">
         <v>1656</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="11" t="s">
         <v>140</v>
       </c>
@@ -3728,19 +3728,19 @@
       <c r="E26" s="15">
         <v>3146</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
@@ -3758,23 +3758,23 @@
       <c r="E27" s="15">
         <v>1575</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23" t="s">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23" t="s">
+      <c r="J27" s="28"/>
+      <c r="K27" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
@@ -3792,33 +3792,33 @@
       <c r="E28" s="15">
         <v>4370</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23" t="s">
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="23" t="s">
+      <c r="P28" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q28" s="23"/>
+      <c r="Q28" s="28"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
@@ -3836,15 +3836,15 @@
       <c r="E29" s="15">
         <v>6154</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
       <c r="P29" s="11" t="s">
         <v>67</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="E30" s="15">
         <v>48791</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -3918,7 +3918,7 @@
       <c r="E31" s="15">
         <v>74572</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="11" t="s">
         <v>147</v>
       </c>
@@ -3999,11 +3999,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
@@ -4017,6 +4012,11 @@
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4028,7 +4028,7 @@
   <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4055,23 +4055,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -6338,6 +6338,8 @@
     <sortCondition ref="B46:B71"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="O51:O52"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="P51:Q51"/>
     <mergeCell ref="G53:G54"/>
@@ -6354,8 +6356,6 @@
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="L51:L52"/>
     <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="O51:O52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Table S3 Details of the results.xlsx
+++ b/Table S3 Details of the results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub local repositories\Mining-Social-Media-Data-for-Revealing-Public-Attitudes-toward-Mobile-Cabin-Hospitals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92E09B2-3341-4447-8C99-C5AF39DA0BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B40AF3-DA69-4376-BCE4-965312EF8005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{66779D8C-8C09-4345-8F79-B57E69EF49E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{66779D8C-8C09-4345-8F79-B57E69EF49E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Section 4.4.1（1）" sheetId="5" r:id="rId1"/>
@@ -752,6 +752,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,9 +768,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,13 +1102,15 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.36328125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="20.6328125" style="21" customWidth="1"/>
+    <col min="2" max="5" width="20.6328125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="27" style="21" customWidth="1"/>
+    <col min="7" max="9" width="20.6328125" style="21" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="21"/>
   </cols>
   <sheetData>
@@ -1682,14 +1684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6438AF37-BC2D-47FB-B055-2C9B10B9ACB6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="20.6328125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="20.6328125" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -2880,23 +2884,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
@@ -3557,21 +3561,21 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="23" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="G20" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -3590,10 +3594,10 @@
       <c r="E21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="25"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="11" t="s">
         <v>45</v>
       </c>
@@ -3624,7 +3628,7 @@
       <c r="E22" s="15">
         <v>82700</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H22" s="11" t="s">
@@ -3660,7 +3664,7 @@
       <c r="E23" s="15">
         <v>1656</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="11" t="s">
         <v>140</v>
       </c>
@@ -3728,19 +3732,19 @@
       <c r="E26" s="15">
         <v>3146</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
@@ -3758,23 +3762,23 @@
       <c r="E27" s="15">
         <v>1575</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
@@ -3792,33 +3796,33 @@
       <c r="E28" s="15">
         <v>4370</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="28" t="s">
+      <c r="N28" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="Q28" s="28"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
@@ -3836,15 +3840,15 @@
       <c r="E29" s="15">
         <v>6154</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="11" t="s">
         <v>67</v>
       </c>
@@ -3868,7 +3872,7 @@
       <c r="E30" s="15">
         <v>48791</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="23" t="s">
         <v>112</v>
       </c>
       <c r="H30" s="11" t="s">
@@ -3918,7 +3922,7 @@
       <c r="E31" s="15">
         <v>74572</v>
       </c>
-      <c r="G31" s="28"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="11" t="s">
         <v>147</v>
       </c>
@@ -3999,6 +4003,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="J28:J29"/>
@@ -4012,11 +4021,6 @@
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="L28:L29"/>
     <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4027,7 +4031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFC09D8-6C4C-4B26-85BD-678589F848C7}">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -4055,23 +4059,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -6338,6 +6342,8 @@
     <sortCondition ref="B46:B71"/>
   </sortState>
   <mergeCells count="18">
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
     <mergeCell ref="N51:N52"/>
     <mergeCell ref="O51:O52"/>
     <mergeCell ref="A1:O1"/>
@@ -6354,8 +6360,6 @@
     <mergeCell ref="I51:I52"/>
     <mergeCell ref="J51:J52"/>
     <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
